--- a/giovinazzo-solidale-2020-04-06.xlsx
+++ b/giovinazzo-solidale-2020-04-06.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7401EBEB-04C8-7949-BC0D-EA8CA23E6457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489AC0ED-2482-CD46-BD01-00612B669970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="31640" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3260" yWindow="560" windowWidth="31640" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donazioni-Aiuti" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="122">
   <si>
     <t>Donazioni in arrivo</t>
   </si>
@@ -923,11 +923,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1748,13 +1748,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
@@ -1765,7 +1765,7 @@
         <v>43927</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>115</v>
@@ -1779,10 +1779,10 @@
         <v>43927</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
@@ -1793,10 +1793,10 @@
         <v>43927</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
@@ -1810,7 +1810,7 @@
         <v>13</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
@@ -1821,10 +1821,10 @@
         <v>43927</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>3</v>
@@ -1835,10 +1835,10 @@
         <v>43927</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
@@ -1849,7 +1849,7 @@
         <v>43927</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
@@ -1863,12 +1863,26 @@
         <v>43927</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1883,7 +1897,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2353,124 +2367,179 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
+        <v>43926</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="17"/>
+      <c r="T9" s="13"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>43927</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>20</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
         <v>10</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="J10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2">
         <v>1</v>
       </c>
-      <c r="L9" s="2">
-        <v>3</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="L10" s="2">
+        <v>3</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2">
         <v>56</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10" s="2">
         <v>25</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10" s="2">
         <v>31</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="S10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="T10" s="13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="S10" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="S11" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="S12" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="S13" s="17" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="S14" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="S15" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="S16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T17" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="19:20" x14ac:dyDescent="0.2">
-      <c r="S17" s="18" t="s">
+    <row r="18" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S18" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="T17" s="14" t="s">
+      <c r="T18" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2485,10 +2554,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2884,92 +2953,138 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
+        <v>43926</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>43927</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>142</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>20</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="I10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="2">
         <v>167</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N10" s="2">
         <v>167</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q10" s="13" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P10" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P11" s="17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P12" s="17" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q14" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P14" s="18" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="Q15" s="14" t="s">
         <v>37</v>
       </c>
     </row>
